--- a/public/downloads/release/Report_Deposit.xlsx
+++ b/public/downloads/release/Report_Deposit.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Report 12 Oct 2021" sheetId="1" r:id="rId4"/>
+    <sheet name="Report 23 Mar 2022" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
@@ -15,17 +15,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>Deposit Report</t>
   </si>
   <si>
+    <t>Id</t>
+  </si>
+  <si>
     <t>Title</t>
   </si>
   <si>
     <t>Category</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>Publisher</t>
   </si>
   <si>
@@ -35,73 +41,151 @@
     <t>Language</t>
   </si>
   <si>
-    <t>Division</t>
+    <t>Relation</t>
   </si>
   <si>
     <t>Right Management</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Download - View</t>
-  </si>
-  <si>
-    <t>asdasdasd</t>
-  </si>
-  <si>
-    <t>Book</t>
-  </si>
-  <si>
-    <t>asdasd</t>
-  </si>
-  <si>
-    <t>2021-10-13</t>
-  </si>
-  <si>
-    <t>Inggris</t>
+    <t>Creator</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Contributor</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>Division Information</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Testing one</t>
+  </si>
+  <si>
+    <t>Audio</t>
+  </si>
+  <si>
+    <t>Testing app one academy this description update</t>
+  </si>
+  <si>
+    <t>publisher one</t>
+  </si>
+  <si>
+    <t>01-01-1970</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>relation one</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>creator one update</t>
+  </si>
+  <si>
+    <t>Subject C update</t>
+  </si>
+  <si>
+    <t>type one update</t>
+  </si>
+  <si>
+    <t>format one</t>
+  </si>
+  <si>
+    <t>contributor one</t>
+  </si>
+  <si>
+    <t>identifier one</t>
+  </si>
+  <si>
+    <t>source one updatee</t>
+  </si>
+  <si>
+    <t>coverage one</t>
+  </si>
+  <si>
+    <t>Division 3 update</t>
+  </si>
+  <si>
+    <t>/file1</t>
+  </si>
+  <si>
+    <t>Testing two</t>
+  </si>
+  <si>
+    <t>this description</t>
+  </si>
+  <si>
+    <t>01-01-1971</t>
+  </si>
+  <si>
+    <t>type one</t>
+  </si>
+  <si>
+    <t>format one update</t>
+  </si>
+  <si>
+    <t>contributor one update</t>
+  </si>
+  <si>
+    <t>Division 3</t>
+  </si>
+  <si>
+    <t>storage/uploads/file_upload/skripsi_a</t>
+  </si>
+  <si>
+    <t>Testing three update</t>
+  </si>
+  <si>
+    <t>one academy this description</t>
+  </si>
+  <si>
+    <t>01-01-1972</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Subject B update</t>
+  </si>
+  <si>
+    <t>identifier one update</t>
+  </si>
+  <si>
+    <t>source one update</t>
+  </si>
+  <si>
+    <t>coverage one update</t>
   </si>
   <si>
     <t>Division 2</t>
   </si>
   <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>0-1</t>
-  </si>
-  <si>
-    <t>avavavavava</t>
-  </si>
-  <si>
-    <t>Ijul</t>
-  </si>
-  <si>
-    <t>2021-10-09</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Division 3</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>0-2</t>
-  </si>
-  <si>
-    <t>abcdef</t>
-  </si>
-  <si>
-    <t>2021-10-08</t>
-  </si>
-  <si>
-    <t>Approved</t>
+    <t>Testing add data</t>
+  </si>
+  <si>
+    <t>Testing add data 2</t>
   </si>
 </sst>
 </file>
@@ -146,9 +230,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -458,152 +545,403 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A2" sqref="A2:I2"/>
+      <selection activeCell="A2" sqref="A2:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="18.995361" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="24.708252" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="56.557617" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="19.995117" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="19.995117" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="26.993408" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="25.85083" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="24.708252" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="44.703369" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" customHeight="1" ht="40">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20" customHeight="1" ht="40">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
     </row>
-    <row r="2" spans="1:9" customHeight="1" ht="30">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:20" customHeight="1" ht="30">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="J2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>10</v>
+    <row r="3" spans="1:20">
+      <c r="A3">
+        <v>171</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>19</v>
+    <row r="4" spans="1:20">
+      <c r="A4">
+        <v>172</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
         <v>21</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5">
+        <v>173</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R5" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
+    <row r="6" spans="1:20">
+      <c r="A6">
+        <v>176</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="I6" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="J6" t="s">
         <v>28</v>
       </c>
-      <c r="I5" t="s">
-        <v>18</v>
+      <c r="K6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>53</v>
+      </c>
+      <c r="R6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7">
+        <v>177</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>53</v>
+      </c>
+      <c r="R7" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/public/downloads/release/Report_Deposit.xlsx
+++ b/public/downloads/release/Report_Deposit.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Report 23 Mar 2022" sheetId="1" r:id="rId4"/>
+    <sheet name="Report 09 Apr 2022" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
   <si>
     <t>Deposit Report</t>
   </si>
@@ -71,43 +71,82 @@
     <t>Coverage</t>
   </si>
   <si>
-    <t>Division Information</t>
-  </si>
-  <si>
     <t>File</t>
   </si>
   <si>
-    <t>Testing one</t>
+    <t>PENILAIAN DAN PENANGANAN RISIKO PADA RUTE WISATA KEBUN RAYA BALIKPAPAN KOTA BALIKPAPAN</t>
+  </si>
+  <si>
+    <t>Bachelor</t>
+  </si>
+  <si>
+    <t>Berdasarkan analisis lokasi rawan kecelakaan yang dilakukan di ruas jalan Kota Balikpapan dengan menggunakan metode EAN (Equivalent Accident Number) didapatkan hasil Blacklink peringkat pertama yaitu pada jalan Soekarno â€“ Hatta dengan jumlah kejadian 106 kecelakaan dengan 143 korban yang terlibat kecelakaan. Pada penelitian ini dilakukan Inspeksi Keselamatan Jalan untuk mengidentifikasi bahaya yang selanjutnya akan dinilai dan dikategorikan risikonya serta membuat usulan penangan di jalan Soekarno â€“ Hatta. Metode yang digunakan untuk pengukuran risiko dalam penelitian ini adalah nilai peluang defisiensi keselamatan infrastruktur jalan terhadap potensi kecelakaan dan nilai dampak keparahan korban kecelakaan berdasarkan tingkat fatalitas yang dikemukakan oleh Mulyono (2009). Hasil pengkategorian risiko pada Jalan Soekarno - Hatta rute wisata Kebun Raya Balikpapan terdapat 1 segmen dengan kategori berbahaya (B), 8 segmen dengan kategori cukup berbahaya (CB) dan 5 segmen dengan kategori tidak berbahaya (TB). Dari hasil pengkategorian risiko tersebut dibuatlah usulan penanganan pada 5 segmen dengan kategori blackspot sekaligus kategori risiko berbahaya (B) dan cukup berbahaya (CB) yaitu pada segmen 10 dengan nilai risiko 256, segmen 3 dengan nilai risiko 244 , segmen 6 dengan nilai risiko 239, segmen 2 dengan nilai risiko 228 dan segmen 1 dengan nilai risiko 222. Kata kunci : penilaian risiko, inspeksi keselamatan jalan, jalan yang berkeselamatan</t>
+  </si>
+  <si>
+    <t>POLITEKNIK KESELAMATAN TRANSPORTASI JALAN</t>
+  </si>
+  <si>
+    <t>25-03-2022</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Usman Alatas</t>
+  </si>
+  <si>
+    <t>D IV MKTJ - 2019</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>/file1</t>
+  </si>
+  <si>
+    <t>SISTEM INFORMASI GEOGRAFIS BERBASIS WEBGIS UNTUK MONITORING DATA PERLENGKAPAN JALAN DI KABUPATEN SRAGEN DENGAN MENGGUNAKAN PHP DAN MYSQL (Studi Kasus Jalan Sukowati, Jalan Ahmad Yani, Jalan Veteran dan Jalan RA. Kartini di Kabupaten Sragen)</t>
+  </si>
+  <si>
+    <t>Sistem informasi berbasis komputer merupakan salah satu syarat bagi sebuah instansi sebagai media untuk menjamin efektifitas penyimpanan data. Dinas Perhubungan Kabupaten Sragen belum memiliki database perlengkapan jalan. Sehingga data kondisi, kebutuhan dan perawatan terkait perlengkapan jalan belum diketahui. Oleh karena itu dibutuhkan sebuah sistem informasi yang dapat menginput, memperbarui, menyimpan dan menampilkan data terkait perlengkapan jalan. Metode penelitian ini dilakukan dengan observasi berupa survei inventarisasi untuk mengetahui data kondisi perlengkapan jalan di lokasi yang dijadikan sempel. Survei inventarisasi perlengkapan jalan dilakukan di Jalan Sukowati, Jalan Ahmad Yani, Jalan RA. Kartini dan Jalan Veteran. Metode pengembangan sistem dalam penelitian ini adalah metode Waterfall dengan tahapan System Engineering, Analisis, Design, Coding, Testing dan Maintenance. Pengujian sistem dilakukan dengan metode Black Box Testing. Hasil perancangan sistem diwujudkan dalam bentuk program aplikasi berupa Sistem Informasi Geografis Perlengkapan Jalan di Kabupaten Sragen yang berbasis web dan database dengan menggunakan pemrograman PHP dan MySQL. Hasil pengujian Black Box yang dilakukan pada website admin, website pengunjung dan beberapa jenis browser menunjukkan bahwa aplikasi dapat berfungsi dengan lancar sesuai yang diharapkan.</t>
+  </si>
+  <si>
+    <t>AGUS BUDI PURWANTORO, ATD., MT - NURING IRFANDANY YUSUF - DR. BUDHY HARJOTO - SETYA WIJAYANTA, S.Pdt., Mt - DOZI WARDIANSYAH. A.Ma. PKB, SH. MM</t>
+  </si>
+  <si>
+    <t>storage/uploads/file_upload/skripsi_a</t>
+  </si>
+  <si>
+    <t>Testing three update</t>
   </si>
   <si>
     <t>Audio</t>
   </si>
   <si>
-    <t>Testing app one academy this description update</t>
+    <t>one academy this description</t>
   </si>
   <si>
     <t>publisher one</t>
   </si>
   <si>
-    <t>01-01-1970</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
+    <t>01-01-1972</t>
+  </si>
+  <si>
+    <t>English</t>
   </si>
   <si>
     <t>relation one</t>
   </si>
   <si>
-    <t>Open</t>
-  </si>
-  <si>
     <t>creator one update</t>
   </si>
   <si>
-    <t>Subject C update</t>
-  </si>
-  <si>
-    <t>type one update</t>
+    <t>Subject B update</t>
+  </si>
+  <si>
+    <t>type one</t>
   </si>
   <si>
     <t>format one</t>
@@ -116,76 +155,95 @@
     <t>contributor one</t>
   </si>
   <si>
+    <t>identifier one update</t>
+  </si>
+  <si>
+    <t>source one update</t>
+  </si>
+  <si>
+    <t>coverage one update</t>
+  </si>
+  <si>
+    <t>ANALISIS KINERJA SIMPANG TIDAK BERSINYAL UNTUK MENINGKATKAN KESELAMATAN PADA SIMPANG ALUN-ALUN LAMA UNGARAN KABUPATEN SEMARANG</t>
+  </si>
+  <si>
+    <t>Persimpangan merupakan pertemuan antara 2 atau lebih jalur lalu lintas yang mengakibatkan kendaraan bertemu pada satu titik yang sama. Simpang alun - alun lama ungaran merupakan sebuah persimpangan yang terletak pada kabupaten Semarang yang merupakan pusat sosial dan ekonomi masyarakat, sehingga menimbulkan bangkitan dan tarikan perjalanan yang tinggi pada persimpangan tersebut. Metode analisis yang digunakan untuk penelitian ini adalah Manual Kapasitas Jalan Indonesia 1997 untuk mengukur kinerja simpang serta metode analisis konflik dan kecepatan untuk mengetahui tingkat konflik pada persimpangan dan kecepatan sebelum memasuki persimpangan. Hasil perhitungan kinerja yang didapatkan, simpang alun-alun lama ungaran memiliki tingkat pelayanan B, tetapi memiliki tingkat konflik dan kecepatan yang tinggi pada daerah persimpangan. Untuk mengatasi persmasalahan tersebut dibuat pengaturan simpang yaitu pada kaki simpang minor D dan Kaki simpang minor B dilarang lurus untuk mengurangi konflik pada simpang serta penambahan perlengkapan jalan berupa rambu batas kecepatan 40 km/jam dan rumble strip untuk mengurangi kecepatan sebelum memasuki simpang serta penambahan pagan pembatas antara trotoar dan badan jalan untuk mengurangi kendaraan untuk berhenti dan parkir pada simpang. Kata Kunci : Simpang, Tingkat Pelayanan, Keselamatan.</t>
+  </si>
+  <si>
+    <t>Dhea Lafitri</t>
+  </si>
+  <si>
+    <t>2019 - DIV MKTJ</t>
+  </si>
+  <si>
+    <t>Publish</t>
+  </si>
+  <si>
+    <t>KAJIAN PENERAPAN SIMPANG BERSINYAL TERKOORDINASI DENGAN MENGGUNAKAN SOFTWARE VISSIM DAN SSAM DI KOTA MALANG</t>
+  </si>
+  <si>
+    <t>Salah satu upaya penanganan untuk pencegahan agar tundaan dan jumlah konflik di Kota Malang dengan cara melakukan pengaturan pada simpang. Pengaturan simpang Jenderal Sudirman dan simpang Pattimura saat ini belum diatur menggunakan koordinasi sinyal. Berdasarkan hal tersebut maka peneliti melakukan penelitian mengenai penanganan kinerja dan konflik lalu lintas pada simpang Jenderal Sudirman dan simpang Pattimura di Kota Malang. Peneltian ini bertujuan untuk memberikan penanganan simpang yang dapat mengurangi tundaan dan konflik yang terjadi di persimpangan guna meningkatkan kelancaran dan keselamatan bagi pengguna jalan. Metode yang digunakan dalam analisis kinerja simpang menggunakan perhitungan oleh software PTV Vissim 9 Student Version sedangkan metode untuk mengetahui konflik yang terjadi adalah dengan menggunakan software SSAM. Langkah selanjutnya adalah memberikan alternatif penanganan dari permasalahan kinerja dan konflik lalu lintas yaitu dengan perubahan pengaturan simpang bersinyal tidak terkoordinasi menjadi simpang bersinyal terkoordinasi yang kemudian dilakukan perbandingan dengan kondisi eksisting terkait dengan tingkat pengurangan konflik dan kinerja simpang pada kondisi eksisting. Alternatif penanganan simpang yang dipilih berupa perubahan pengaturan fase simpang Pattimura dari 2 fase menjadi 3 fase dan pengoptimalan waktu siklus dari simpang Jenderal Sudirman dengan waktu siklus simpang Pattimura mengikuti simpang Jenderal Sudirman karena dapat mengurangi terjadinya konflik lalu lintas jenis crossing sebesar 43,99% , konflik jenis merging sebesar 57,09% dan tingkat pelayanan simpang Jenderal Sudirman setelah perubahan E dan simpang Pattimura D.</t>
+  </si>
+  <si>
+    <t>ZULFA AYU MALINDA</t>
+  </si>
+  <si>
+    <t>Testing one two</t>
+  </si>
+  <si>
+    <t>Material Review</t>
+  </si>
+  <si>
+    <t>Testing app one academy
+this description</t>
+  </si>
+  <si>
+    <t>02-03-2022</t>
+  </si>
+  <si>
+    <t>creator one</t>
+  </si>
+  <si>
+    <t>Subject B</t>
+  </si>
+  <si>
     <t>identifier one</t>
   </si>
   <si>
-    <t>source one updatee</t>
+    <t>source one</t>
   </si>
   <si>
     <t>coverage one</t>
   </si>
   <si>
-    <t>Division 3 update</t>
-  </si>
-  <si>
-    <t>/file1</t>
-  </si>
-  <si>
-    <t>Testing two</t>
-  </si>
-  <si>
-    <t>this description</t>
-  </si>
-  <si>
-    <t>01-01-1971</t>
-  </si>
-  <si>
-    <t>type one</t>
-  </si>
-  <si>
-    <t>format one update</t>
-  </si>
-  <si>
-    <t>contributor one update</t>
-  </si>
-  <si>
-    <t>Division 3</t>
-  </si>
-  <si>
-    <t>storage/uploads/file_upload/skripsi_a</t>
-  </si>
-  <si>
-    <t>Testing three update</t>
-  </si>
-  <si>
-    <t>one academy this description</t>
-  </si>
-  <si>
-    <t>01-01-1972</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Subject B update</t>
-  </si>
-  <si>
-    <t>identifier one update</t>
-  </si>
-  <si>
-    <t>source one update</t>
-  </si>
-  <si>
-    <t>coverage one update</t>
-  </si>
-  <si>
-    <t>Division 2</t>
-  </si>
-  <si>
-    <t>Testing add data</t>
-  </si>
-  <si>
-    <t>Testing add data 2</t>
+    <t>Testing one twoo</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Subject C</t>
+  </si>
+  <si>
+    <t>Testing one twooo</t>
+  </si>
+  <si>
+    <t>Thesis Master</t>
+  </si>
+  <si>
+    <t>Testing one bced</t>
+  </si>
+  <si>
+    <t>testiingggg</t>
+  </si>
+  <si>
+    <t>Testing one abg cer</t>
+  </si>
+  <si>
+    <t>Perhitungan algorith k vision</t>
+  </si>
+  <si>
+    <t>Mohamad Wahyudin</t>
   </si>
 </sst>
 </file>
@@ -193,9 +251,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
@@ -234,10 +301,10 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -545,7 +612,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A2" sqref="A2:T2"/>
@@ -554,24 +621,23 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="18.995361" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="24.708252" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="56.557617" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="284.216309" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="1993.656006" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="49.416504" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="169.815674" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="18.709717" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="21.137695" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="26.993408" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="19.995117" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="25.85083" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="21.137695" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="23.422852" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="24.708252" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="44.703369" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="44.703369" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" customHeight="1" ht="40">
@@ -653,9 +719,7 @@
       <c r="R2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="S2" s="4"/>
       <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:20">
@@ -663,58 +727,43 @@
         <v>171</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3">
+        <v>201900063</v>
+      </c>
+      <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>27</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
         <v>28</v>
       </c>
-      <c r="K3" t="s">
+      <c r="R3" t="s">
         <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" t="s">
-        <v>36</v>
-      </c>
-      <c r="S3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -722,58 +771,43 @@
         <v>172</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
       </c>
       <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
       <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4">
+        <v>201900064</v>
+      </c>
+      <c r="I4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
         <v>27</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
         <v>28</v>
       </c>
-      <c r="K4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="R4" t="s">
         <v>33</v>
-      </c>
-      <c r="P4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R4" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -781,55 +815,52 @@
         <v>173</v>
       </c>
       <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" t="s">
         <v>46</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="P5" t="s">
         <v>47</v>
       </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="Q5" t="s">
         <v>48</v>
-      </c>
-      <c r="G5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>53</v>
-      </c>
-      <c r="R5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -837,55 +868,40 @@
         <v>176</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
       </c>
       <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
       <c r="G6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="H6">
+        <v>201900075</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" t="s">
         <v>28</v>
-      </c>
-      <c r="K6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>53</v>
-      </c>
-      <c r="R6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -893,55 +909,517 @@
         <v>177</v>
       </c>
       <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7">
+        <v>201900083</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
         <v>56</v>
       </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>27</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
         <v>28</v>
       </c>
-      <c r="K7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>53</v>
-      </c>
-      <c r="R7" t="s">
-        <v>54</v>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8">
+        <v>4645</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9">
+        <v>4646</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10">
+        <v>4647</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11">
+        <v>4648</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12">
+        <v>4649</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N12" t="s">
+        <v>45</v>
+      </c>
+      <c r="O12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13">
+        <v>4650</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14">
+        <v>4651</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" t="s">
+        <v>45</v>
+      </c>
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15">
+        <v>4652</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" t="s">
+        <v>68</v>
+      </c>
+      <c r="L15" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" t="s">
+        <v>45</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16">
+        <v>4653</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" t="s">
+        <v>75</v>
+      </c>
+      <c r="O16" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
